--- a/Documentatie/planning.xlsx
+++ b/Documentatie/planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Day 1</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Testplan</t>
   </si>
   <si>
-    <t>ERD &amp; DBO</t>
-  </si>
-  <si>
     <t>Klassendiagram</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>11 uur af</t>
+  </si>
+  <si>
+    <t>Pas ERD aan</t>
+  </si>
+  <si>
+    <t>ERD &amp; strokendiagram</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J13"/>
+  <dimension ref="C3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,12 +431,12 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -442,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -455,46 +458,53 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>11</v>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
